--- a/tech/java/Java.xlsx
+++ b/tech/java/Java.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/project/YingVickyCao.github.io/tech/java/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/tech/java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516E439-5B25-B541-B765-017F390A0E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4208C-05C5-834D-A29C-D813F86E3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36480" yWindow="-2620" windowWidth="28800" windowHeight="18000" xr2:uid="{7C69AD57-AE32-C847-879F-875651E96C78}"/>
+    <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" firstSheet="6" activeTab="16" xr2:uid="{7C69AD57-AE32-C847-879F-875651E96C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Java_memory_hashCode" sheetId="15" r:id="rId14"/>
     <sheet name="Java_memory_==与equals" sheetId="16" r:id="rId15"/>
     <sheet name="Base64原理" sheetId="17" r:id="rId16"/>
+    <sheet name="Java_versions" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="283">
   <si>
     <t>Usage</t>
   </si>
@@ -658,7 +659,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -706,7 +707,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +772,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -806,7 +807,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1398,23 +1399,92 @@
     <t>Base64原理</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Java Versions</t>
+  </si>
+  <si>
+    <t>Java 19, 2023, not LTS</t>
+  </si>
+  <si>
+    <t>Java 11, 2018 LTS</t>
+  </si>
+  <si>
+    <t>Java 9</t>
+  </si>
+  <si>
+    <t>Java 8, 2014 LTS</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Java 19</t>
+  </si>
+  <si>
+    <t>Java 20</t>
+  </si>
+  <si>
+    <t>Java 18</t>
+  </si>
+  <si>
+    <t>Java 16</t>
+  </si>
+  <si>
+    <t>Java 15</t>
+  </si>
+  <si>
+    <t>Java 14</t>
+  </si>
+  <si>
+    <t>Java 13</t>
+  </si>
+  <si>
+    <t>Java 12</t>
+  </si>
+  <si>
+    <t>Java 10</t>
+  </si>
+  <si>
+    <t>Stop Support</t>
+  </si>
+  <si>
+    <t>Java 17 LTS</t>
+  </si>
+  <si>
+    <t>Java 11 LTS</t>
+  </si>
+  <si>
+    <t>Java 8 LTS</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/java-se-support-roadmap.html</t>
+  </si>
+  <si>
+    <t>Java 21 LTS</t>
+  </si>
+  <si>
+    <t>Java 7 LTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,20 +1496,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1447,13 +1517,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1462,7 +1532,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1471,7 +1541,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1508,7 +1578,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1521,14 +1591,14 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1536,7 +1606,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1544,7 +1614,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1552,7 +1622,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1560,7 +1630,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1580,21 +1650,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1602,7 +1672,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1632,7 +1702,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1640,7 +1710,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1649,13 +1719,46 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF404040"/>
+      <name val="SimHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1762,6 +1865,16 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2223,15 +2336,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2515,126 +2630,6 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2705,32 +2700,158 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{239653D3-392B-B94E-8897-2962A55C3BF8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6006,10 +6127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB7D6FA-3CC5-D149-87C6-B74F2C3A7F2D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6117,6 +6238,11 @@
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6137,6 +6263,7 @@
     <hyperlink ref="A14" location="Java_memory_hashCode!A1" display="Java_memory_hashCode" xr:uid="{57B892A6-D2F3-1844-9322-7926948C2A4A}"/>
     <hyperlink ref="A15" location="'Java_memory_==与equals'!A1" display="Java_memory_==与equals" xr:uid="{C12F10D0-0191-8D4D-9457-DC7F6D51482D}"/>
     <hyperlink ref="A16" location="Base64原理!A1" display="Base64原理" xr:uid="{A5B27EFB-6228-BC4A-B811-DE03997790B6}"/>
+    <hyperlink ref="A17" location="Java_versions!A1" display="Java Versions" xr:uid="{807FB7E5-9E24-894C-8906-4E4A1C5A91A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6192,16 +6319,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="77"/>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="193"/>
+      <c r="D9" s="227"/>
       <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
       <c r="B10" s="77"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="76"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1">
@@ -6212,16 +6339,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="77"/>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="193"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="76"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1" thickBot="1">
       <c r="B13" s="77"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
       <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5">
@@ -6238,10 +6365,10 @@
     </row>
     <row r="16" spans="1:5" ht="26">
       <c r="B16" s="77"/>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="225" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="191"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="76"/>
     </row>
     <row r="17" spans="2:16" ht="17" thickBot="1">
@@ -6252,16 +6379,16 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="77"/>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="226" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="193"/>
+      <c r="D18" s="227"/>
       <c r="E18" s="76"/>
     </row>
     <row r="19" spans="2:16" ht="17" thickBot="1">
       <c r="B19" s="77"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="76"/>
     </row>
     <row r="20" spans="2:16" ht="17" thickBot="1">
@@ -6297,11 +6424,11 @@
     </row>
     <row r="28" spans="2:16" ht="17" thickBot="1">
       <c r="B28" s="66"/>
-      <c r="C28" s="181" t="s">
+      <c r="C28" s="215" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="217"/>
       <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:16" ht="17" thickBot="1">
@@ -6317,11 +6444,11 @@
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
       <c r="B30" s="66"/>
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="186"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="220"/>
       <c r="F30" s="64"/>
       <c r="M30" s="63"/>
       <c r="N30" s="63"/>
@@ -6387,55 +6514,55 @@
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
       <c r="G40" s="58"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
     </row>
     <row r="41" spans="2:13" ht="16" customHeight="1">
       <c r="B41" s="58"/>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
       <c r="G41" s="58"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="58"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="222"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
       <c r="G42" s="58"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
+      <c r="J42" s="224"/>
+      <c r="K42" s="224"/>
+      <c r="L42" s="224"/>
+      <c r="M42" s="224"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="58"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="222"/>
       <c r="G43" s="58"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="190"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
+      <c r="J43" s="224"/>
+      <c r="K43" s="224"/>
+      <c r="L43" s="224"/>
+      <c r="M43" s="224"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="58"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
+      <c r="C44" s="222"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="222"/>
       <c r="G44" s="58"/>
     </row>
     <row r="45" spans="2:13">
@@ -6456,36 +6583,36 @@
     </row>
     <row r="47" spans="2:13" ht="16" customHeight="1">
       <c r="B47" s="58"/>
-      <c r="C47" s="188" t="s">
+      <c r="C47" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
+      <c r="D47" s="222"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="222"/>
       <c r="G47" s="58"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="58"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="222"/>
       <c r="G48" s="58"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="58"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
       <c r="G49" s="58"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="58"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="188"/>
+      <c r="C50" s="222"/>
+      <c r="D50" s="222"/>
+      <c r="E50" s="222"/>
+      <c r="F50" s="222"/>
       <c r="G50" s="58"/>
     </row>
     <row r="51" spans="2:7">
@@ -6506,12 +6633,12 @@
     </row>
     <row r="53" spans="2:7" ht="26">
       <c r="B53" s="58"/>
-      <c r="C53" s="189" t="s">
+      <c r="C53" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="223"/>
       <c r="G53" s="58"/>
     </row>
     <row r="54" spans="2:7">
@@ -6524,36 +6651,36 @@
     </row>
     <row r="55" spans="2:7" ht="16" customHeight="1">
       <c r="B55" s="58"/>
-      <c r="C55" s="188" t="s">
+      <c r="C55" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
+      <c r="D55" s="222"/>
+      <c r="E55" s="222"/>
+      <c r="F55" s="222"/>
       <c r="G55" s="58"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="58"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
+      <c r="C56" s="222"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="222"/>
+      <c r="F56" s="222"/>
       <c r="G56" s="58"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="58"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="222"/>
+      <c r="F57" s="222"/>
       <c r="G57" s="58"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="58"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="188"/>
+      <c r="C58" s="222"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="222"/>
+      <c r="F58" s="222"/>
       <c r="G58" s="58"/>
     </row>
     <row r="59" spans="2:7">
@@ -6609,20 +6736,20 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="54"/>
-      <c r="C66" s="198" t="s">
+      <c r="C66" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="199"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="200"/>
+      <c r="D66" s="233"/>
+      <c r="E66" s="233"/>
+      <c r="F66" s="234"/>
       <c r="G66" s="52"/>
     </row>
     <row r="67" spans="2:7" ht="17" thickBot="1">
       <c r="B67" s="54"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="202"/>
-      <c r="E67" s="202"/>
-      <c r="F67" s="203"/>
+      <c r="C67" s="235"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="236"/>
+      <c r="F67" s="237"/>
       <c r="G67" s="52"/>
     </row>
     <row r="68" spans="2:7">
@@ -6643,20 +6770,20 @@
     </row>
     <row r="70" spans="2:7" ht="16" customHeight="1">
       <c r="B70" s="54"/>
-      <c r="C70" s="198" t="s">
+      <c r="C70" s="232" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="205"/>
+      <c r="D70" s="238"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="239"/>
       <c r="G70" s="52"/>
     </row>
     <row r="71" spans="2:7" ht="17" thickBot="1">
       <c r="B71" s="54"/>
-      <c r="C71" s="206"/>
-      <c r="D71" s="207"/>
-      <c r="E71" s="207"/>
-      <c r="F71" s="208"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="241"/>
+      <c r="E71" s="241"/>
+      <c r="F71" s="242"/>
       <c r="G71" s="52"/>
     </row>
     <row r="72" spans="2:7">
@@ -6677,20 +6804,20 @@
     </row>
     <row r="74" spans="2:7" ht="16" customHeight="1">
       <c r="B74" s="54"/>
-      <c r="C74" s="198" t="s">
+      <c r="C74" s="232" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="204"/>
-      <c r="E74" s="204"/>
-      <c r="F74" s="205"/>
+      <c r="D74" s="238"/>
+      <c r="E74" s="238"/>
+      <c r="F74" s="239"/>
       <c r="G74" s="52"/>
     </row>
     <row r="75" spans="2:7" ht="17" thickBot="1">
       <c r="B75" s="54"/>
-      <c r="C75" s="206"/>
-      <c r="D75" s="207"/>
-      <c r="E75" s="207"/>
-      <c r="F75" s="208"/>
+      <c r="C75" s="240"/>
+      <c r="D75" s="241"/>
+      <c r="E75" s="241"/>
+      <c r="F75" s="242"/>
       <c r="G75" s="52"/>
     </row>
     <row r="76" spans="2:7">
@@ -6711,20 +6838,20 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="54"/>
-      <c r="C78" s="198" t="s">
+      <c r="C78" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="205"/>
+      <c r="D78" s="238"/>
+      <c r="E78" s="238"/>
+      <c r="F78" s="239"/>
       <c r="G78" s="52"/>
     </row>
     <row r="79" spans="2:7" ht="17" thickBot="1">
       <c r="B79" s="54"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="207"/>
-      <c r="E79" s="207"/>
-      <c r="F79" s="208"/>
+      <c r="C79" s="240"/>
+      <c r="D79" s="241"/>
+      <c r="E79" s="241"/>
+      <c r="F79" s="242"/>
       <c r="G79" s="52"/>
     </row>
     <row r="80" spans="2:7">
@@ -6778,54 +6905,54 @@
     </row>
     <row r="94" spans="2:12" ht="18" customHeight="1">
       <c r="B94" s="44"/>
-      <c r="C94" s="172" t="s">
+      <c r="C94" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="173"/>
-      <c r="E94" s="173"/>
-      <c r="F94" s="174"/>
-      <c r="H94" s="187" t="s">
+      <c r="D94" s="207"/>
+      <c r="E94" s="207"/>
+      <c r="F94" s="208"/>
+      <c r="H94" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="187"/>
+      <c r="I94" s="221"/>
+      <c r="J94" s="221"/>
+      <c r="K94" s="221"/>
       <c r="L94" s="43"/>
     </row>
     <row r="95" spans="2:12">
       <c r="B95" s="44"/>
-      <c r="C95" s="175"/>
-      <c r="D95" s="176"/>
-      <c r="E95" s="176"/>
-      <c r="F95" s="177"/>
-      <c r="H95" s="187"/>
-      <c r="I95" s="187"/>
-      <c r="J95" s="187"/>
-      <c r="K95" s="187"/>
+      <c r="C95" s="209"/>
+      <c r="D95" s="210"/>
+      <c r="E95" s="210"/>
+      <c r="F95" s="211"/>
+      <c r="H95" s="221"/>
+      <c r="I95" s="221"/>
+      <c r="J95" s="221"/>
+      <c r="K95" s="221"/>
       <c r="L95" s="43"/>
     </row>
     <row r="96" spans="2:12">
       <c r="B96" s="44"/>
-      <c r="C96" s="175"/>
-      <c r="D96" s="176"/>
-      <c r="E96" s="176"/>
-      <c r="F96" s="177"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-      <c r="J96" s="187"/>
-      <c r="K96" s="187"/>
+      <c r="C96" s="209"/>
+      <c r="D96" s="210"/>
+      <c r="E96" s="210"/>
+      <c r="F96" s="211"/>
+      <c r="H96" s="221"/>
+      <c r="I96" s="221"/>
+      <c r="J96" s="221"/>
+      <c r="K96" s="221"/>
       <c r="L96" s="43"/>
     </row>
     <row r="97" spans="2:12" ht="17" thickBot="1">
       <c r="B97" s="44"/>
-      <c r="C97" s="178"/>
-      <c r="D97" s="179"/>
-      <c r="E97" s="179"/>
-      <c r="F97" s="180"/>
-      <c r="H97" s="187"/>
-      <c r="I97" s="187"/>
-      <c r="J97" s="187"/>
-      <c r="K97" s="187"/>
+      <c r="C97" s="212"/>
+      <c r="D97" s="213"/>
+      <c r="E97" s="213"/>
+      <c r="F97" s="214"/>
+      <c r="H97" s="221"/>
+      <c r="I97" s="221"/>
+      <c r="J97" s="221"/>
+      <c r="K97" s="221"/>
       <c r="L97" s="43"/>
     </row>
     <row r="98" spans="2:12">
@@ -6842,42 +6969,42 @@
     </row>
     <row r="101" spans="2:12">
       <c r="B101" s="44"/>
-      <c r="C101" s="197" t="s">
+      <c r="C101" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="D101" s="197"/>
-      <c r="E101" s="197"/>
-      <c r="F101" s="197"/>
-      <c r="H101" s="171" t="s">
+      <c r="D101" s="231"/>
+      <c r="E101" s="231"/>
+      <c r="F101" s="231"/>
+      <c r="H101" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="I101" s="171"/>
-      <c r="J101" s="171"/>
-      <c r="K101" s="171"/>
+      <c r="I101" s="205"/>
+      <c r="J101" s="205"/>
+      <c r="K101" s="205"/>
       <c r="L101" s="43"/>
     </row>
     <row r="102" spans="2:12">
       <c r="B102" s="44"/>
-      <c r="C102" s="197"/>
-      <c r="D102" s="197"/>
-      <c r="E102" s="197"/>
-      <c r="F102" s="197"/>
-      <c r="H102" s="171"/>
-      <c r="I102" s="171"/>
-      <c r="J102" s="171"/>
-      <c r="K102" s="171"/>
+      <c r="C102" s="231"/>
+      <c r="D102" s="231"/>
+      <c r="E102" s="231"/>
+      <c r="F102" s="231"/>
+      <c r="H102" s="205"/>
+      <c r="I102" s="205"/>
+      <c r="J102" s="205"/>
+      <c r="K102" s="205"/>
       <c r="L102" s="43"/>
     </row>
     <row r="103" spans="2:12">
       <c r="B103" s="44"/>
-      <c r="C103" s="197"/>
-      <c r="D103" s="197"/>
-      <c r="E103" s="197"/>
-      <c r="F103" s="197"/>
-      <c r="H103" s="171"/>
-      <c r="I103" s="171"/>
-      <c r="J103" s="171"/>
-      <c r="K103" s="171"/>
+      <c r="C103" s="231"/>
+      <c r="D103" s="231"/>
+      <c r="E103" s="231"/>
+      <c r="F103" s="231"/>
+      <c r="H103" s="205"/>
+      <c r="I103" s="205"/>
+      <c r="J103" s="205"/>
+      <c r="K103" s="205"/>
       <c r="L103" s="43"/>
     </row>
     <row r="104" spans="2:12">
@@ -6890,28 +7017,28 @@
     </row>
     <row r="106" spans="2:12">
       <c r="B106" s="44"/>
-      <c r="C106" s="196" t="s">
+      <c r="C106" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="D106" s="196"/>
-      <c r="E106" s="196"/>
-      <c r="F106" s="196"/>
+      <c r="D106" s="230"/>
+      <c r="E106" s="230"/>
+      <c r="F106" s="230"/>
       <c r="L106" s="43"/>
     </row>
     <row r="107" spans="2:12">
       <c r="B107" s="44"/>
-      <c r="C107" s="196"/>
-      <c r="D107" s="196"/>
-      <c r="E107" s="196"/>
-      <c r="F107" s="196"/>
+      <c r="C107" s="230"/>
+      <c r="D107" s="230"/>
+      <c r="E107" s="230"/>
+      <c r="F107" s="230"/>
       <c r="L107" s="43"/>
     </row>
     <row r="108" spans="2:12">
       <c r="B108" s="44"/>
-      <c r="C108" s="196"/>
-      <c r="D108" s="196"/>
-      <c r="E108" s="196"/>
-      <c r="F108" s="196"/>
+      <c r="C108" s="230"/>
+      <c r="D108" s="230"/>
+      <c r="E108" s="230"/>
+      <c r="F108" s="230"/>
       <c r="L108" s="43"/>
     </row>
     <row r="109" spans="2:12">
@@ -8231,532 +8358,532 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="211" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="5.83203125" style="210" customWidth="1"/>
-    <col min="26" max="26" width="5.83203125" style="209" customWidth="1"/>
-    <col min="27" max="27" width="24.1640625" style="209" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="209" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="209"/>
-    <col min="30" max="30" width="9" style="209" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="209"/>
+    <col min="1" max="1" width="36.83203125" style="171" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="5.83203125" style="170" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" style="169" customWidth="1"/>
+    <col min="27" max="27" width="24.1640625" style="169" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="169" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="169"/>
+    <col min="30" max="30" width="9" style="169" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.83203125" style="169"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="198" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="169" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="F3" s="210">
+      <c r="F3" s="170">
         <v>77</v>
       </c>
-      <c r="N3" s="210">
+      <c r="N3" s="170">
         <v>97</v>
       </c>
-      <c r="V3" s="210">
+      <c r="V3" s="170">
         <v>110</v>
       </c>
-      <c r="AA3" s="209" t="s">
+      <c r="AA3" s="169" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16" thickBot="1">
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="244" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233" t="s">
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244" t="s">
         <v>255</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="233"/>
-      <c r="P4" s="233"/>
-      <c r="Q4" s="233"/>
-      <c r="R4" s="239" t="s">
+      <c r="K4" s="244"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="244"/>
+      <c r="O4" s="244"/>
+      <c r="P4" s="244"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="243" t="s">
         <v>254</v>
       </c>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="239"/>
-      <c r="W4" s="239"/>
-      <c r="X4" s="239"/>
-      <c r="Y4" s="239"/>
-      <c r="AB4" s="224" t="s">
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="AB4" s="184" t="s">
         <v>256</v>
       </c>
-      <c r="AC4" s="224" t="s">
+      <c r="AC4" s="184" t="s">
         <v>255</v>
       </c>
-      <c r="AD4" s="224" t="s">
+      <c r="AD4" s="184" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="16" thickBot="1">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="171" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="232">
-        <v>0</v>
-      </c>
-      <c r="C5" s="231">
+      <c r="B5" s="192">
+        <v>0</v>
+      </c>
+      <c r="C5" s="191">
         <v>1</v>
       </c>
-      <c r="D5" s="231">
-        <v>0</v>
-      </c>
-      <c r="E5" s="231">
-        <v>0</v>
-      </c>
-      <c r="F5" s="231">
+      <c r="D5" s="191">
+        <v>0</v>
+      </c>
+      <c r="E5" s="191">
+        <v>0</v>
+      </c>
+      <c r="F5" s="191">
         <v>1</v>
       </c>
-      <c r="G5" s="231">
+      <c r="G5" s="191">
         <v>1</v>
       </c>
-      <c r="H5" s="231">
-        <v>0</v>
-      </c>
-      <c r="I5" s="230">
+      <c r="H5" s="191">
+        <v>0</v>
+      </c>
+      <c r="I5" s="190">
         <v>1</v>
       </c>
-      <c r="J5" s="238">
-        <v>0</v>
-      </c>
-      <c r="K5" s="237">
+      <c r="J5" s="197">
+        <v>0</v>
+      </c>
+      <c r="K5" s="196">
         <v>1</v>
       </c>
-      <c r="L5" s="237">
+      <c r="L5" s="196">
         <v>1</v>
       </c>
-      <c r="M5" s="237">
-        <v>0</v>
-      </c>
-      <c r="N5" s="237">
-        <v>0</v>
-      </c>
-      <c r="O5" s="237">
-        <v>0</v>
-      </c>
-      <c r="P5" s="237">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="237">
+      <c r="M5" s="196">
+        <v>0</v>
+      </c>
+      <c r="N5" s="196">
+        <v>0</v>
+      </c>
+      <c r="O5" s="196">
+        <v>0</v>
+      </c>
+      <c r="P5" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="196">
         <v>1</v>
       </c>
-      <c r="R5" s="236">
-        <v>0</v>
-      </c>
-      <c r="S5" s="235">
+      <c r="R5" s="195">
+        <v>0</v>
+      </c>
+      <c r="S5" s="194">
         <v>1</v>
       </c>
-      <c r="T5" s="235">
+      <c r="T5" s="194">
         <v>1</v>
       </c>
-      <c r="U5" s="235">
-        <v>0</v>
-      </c>
-      <c r="V5" s="235">
+      <c r="U5" s="194">
+        <v>0</v>
+      </c>
+      <c r="V5" s="194">
         <v>1</v>
       </c>
-      <c r="W5" s="235">
+      <c r="W5" s="194">
         <v>1</v>
       </c>
-      <c r="X5" s="235">
+      <c r="X5" s="194">
         <v>1</v>
       </c>
-      <c r="Y5" s="234">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="209" t="s">
+      <c r="Y5" s="193">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="AB5" s="229" t="s">
+      <c r="AB5" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="AC5" s="229" t="s">
+      <c r="AC5" s="189" t="s">
         <v>251</v>
       </c>
-      <c r="AD5" s="229" t="s">
+      <c r="AD5" s="189" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="183" t="s">
         <v>237</v>
       </c>
-      <c r="AA6" s="209" t="s">
+      <c r="AA6" s="169" t="s">
         <v>238</v>
       </c>
-      <c r="AB6" s="224">
+      <c r="AB6" s="184">
         <v>77</v>
       </c>
-      <c r="AC6" s="224">
+      <c r="AC6" s="184">
         <v>97</v>
       </c>
-      <c r="AD6" s="224">
+      <c r="AD6" s="184">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="171" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="228">
-        <v>0</v>
-      </c>
-      <c r="C7" s="227">
+      <c r="B7" s="188">
+        <v>0</v>
+      </c>
+      <c r="C7" s="187">
         <v>1</v>
       </c>
-      <c r="D7" s="227">
-        <v>0</v>
-      </c>
-      <c r="E7" s="227">
-        <v>0</v>
-      </c>
-      <c r="F7" s="227">
+      <c r="D7" s="187">
+        <v>0</v>
+      </c>
+      <c r="E7" s="187">
+        <v>0</v>
+      </c>
+      <c r="F7" s="187">
         <v>1</v>
       </c>
-      <c r="G7" s="226">
+      <c r="G7" s="186">
         <v>1</v>
       </c>
-      <c r="H7" s="221">
-        <v>0</v>
-      </c>
-      <c r="I7" s="220">
+      <c r="H7" s="181">
+        <v>0</v>
+      </c>
+      <c r="I7" s="180">
         <v>1</v>
       </c>
-      <c r="J7" s="220">
-        <v>0</v>
-      </c>
-      <c r="K7" s="220">
+      <c r="J7" s="180">
+        <v>0</v>
+      </c>
+      <c r="K7" s="180">
         <v>1</v>
       </c>
-      <c r="L7" s="220">
+      <c r="L7" s="180">
         <v>1</v>
       </c>
-      <c r="M7" s="222">
-        <v>0</v>
-      </c>
-      <c r="N7" s="228">
-        <v>0</v>
-      </c>
-      <c r="O7" s="227">
-        <v>0</v>
-      </c>
-      <c r="P7" s="227">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="227">
+      <c r="M7" s="182">
+        <v>0</v>
+      </c>
+      <c r="N7" s="188">
+        <v>0</v>
+      </c>
+      <c r="O7" s="187">
+        <v>0</v>
+      </c>
+      <c r="P7" s="187">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="187">
         <v>1</v>
       </c>
-      <c r="R7" s="227">
-        <v>0</v>
-      </c>
-      <c r="S7" s="226">
+      <c r="R7" s="187">
+        <v>0</v>
+      </c>
+      <c r="S7" s="186">
         <v>1</v>
       </c>
-      <c r="T7" s="221">
+      <c r="T7" s="181">
         <v>1</v>
       </c>
-      <c r="U7" s="220">
-        <v>0</v>
-      </c>
-      <c r="V7" s="220">
+      <c r="U7" s="180">
+        <v>0</v>
+      </c>
+      <c r="V7" s="180">
         <v>1</v>
       </c>
-      <c r="W7" s="220">
+      <c r="W7" s="180">
         <v>1</v>
       </c>
-      <c r="X7" s="220">
+      <c r="X7" s="180">
         <v>1</v>
       </c>
-      <c r="Y7" s="222">
+      <c r="Y7" s="182">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="173" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="210">
+      <c r="D8" s="170">
         <v>19</v>
       </c>
-      <c r="J8" s="210">
+      <c r="J8" s="170">
         <v>22</v>
       </c>
-      <c r="P8" s="210">
+      <c r="P8" s="170">
         <v>5</v>
       </c>
-      <c r="W8" s="210">
+      <c r="W8" s="170">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="170" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="210" t="s">
+      <c r="J9" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="P9" s="210" t="s">
+      <c r="P9" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="W9" s="210" t="s">
+      <c r="W9" s="170" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="E15" s="210">
+      <c r="E15" s="170">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="16" thickBot="1">
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="244" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="AA16" s="209" t="s">
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="AA16" s="169" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="16" thickBot="1">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="171" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="232">
-        <v>0</v>
-      </c>
-      <c r="C17" s="231">
-        <v>0</v>
-      </c>
-      <c r="D17" s="231">
+      <c r="B17" s="192">
+        <v>0</v>
+      </c>
+      <c r="C17" s="191">
+        <v>0</v>
+      </c>
+      <c r="D17" s="191">
         <v>1</v>
       </c>
-      <c r="E17" s="231">
-        <v>0</v>
-      </c>
-      <c r="F17" s="231">
-        <v>0</v>
-      </c>
-      <c r="G17" s="231">
-        <v>0</v>
-      </c>
-      <c r="H17" s="231">
-        <v>0</v>
-      </c>
-      <c r="I17" s="230">
+      <c r="E17" s="191">
+        <v>0</v>
+      </c>
+      <c r="F17" s="191">
+        <v>0</v>
+      </c>
+      <c r="G17" s="191">
+        <v>0</v>
+      </c>
+      <c r="H17" s="191">
+        <v>0</v>
+      </c>
+      <c r="I17" s="190">
         <v>1</v>
       </c>
-      <c r="AB17" s="224" t="s">
+      <c r="AB17" s="184" t="s">
         <v>241</v>
       </c>
       <c r="AC17" s="32"/>
       <c r="AD17" s="32"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="AA18" s="209" t="s">
+      <c r="AA18" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="AB18" s="229" t="s">
+      <c r="AB18" s="189" t="s">
         <v>239</v>
       </c>
       <c r="AC18" s="32"/>
       <c r="AD18" s="32"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="B19" s="228">
-        <v>0</v>
-      </c>
-      <c r="C19" s="227">
-        <v>0</v>
-      </c>
-      <c r="D19" s="227">
+      <c r="B19" s="188">
+        <v>0</v>
+      </c>
+      <c r="C19" s="187">
+        <v>0</v>
+      </c>
+      <c r="D19" s="187">
         <v>1</v>
       </c>
-      <c r="E19" s="227">
-        <v>0</v>
-      </c>
-      <c r="F19" s="227">
-        <v>0</v>
-      </c>
-      <c r="G19" s="226">
-        <v>0</v>
-      </c>
-      <c r="H19" s="210">
-        <v>0</v>
-      </c>
-      <c r="I19" s="210">
+      <c r="E19" s="187">
+        <v>0</v>
+      </c>
+      <c r="F19" s="187">
+        <v>0</v>
+      </c>
+      <c r="G19" s="186">
+        <v>0</v>
+      </c>
+      <c r="H19" s="170">
+        <v>0</v>
+      </c>
+      <c r="I19" s="170">
         <v>1</v>
       </c>
-      <c r="N19" s="225"/>
-      <c r="O19" s="225"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="225"/>
-      <c r="R19" s="225"/>
-      <c r="S19" s="225"/>
-      <c r="AA19" s="209" t="s">
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="AA19" s="169" t="s">
         <v>238</v>
       </c>
-      <c r="AB19" s="224">
+      <c r="AB19" s="184">
         <v>33</v>
       </c>
       <c r="AC19" s="32"/>
       <c r="AD19" s="32"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="183" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="171" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="221">
-        <v>0</v>
-      </c>
-      <c r="C21" s="220">
-        <v>0</v>
-      </c>
-      <c r="D21" s="220">
+      <c r="B21" s="181">
+        <v>0</v>
+      </c>
+      <c r="C21" s="180">
+        <v>0</v>
+      </c>
+      <c r="D21" s="180">
         <v>1</v>
       </c>
-      <c r="E21" s="220">
-        <v>0</v>
-      </c>
-      <c r="F21" s="220">
-        <v>0</v>
-      </c>
-      <c r="G21" s="222">
-        <v>0</v>
-      </c>
-      <c r="H21" s="221">
-        <v>0</v>
-      </c>
-      <c r="I21" s="220">
+      <c r="E21" s="180">
+        <v>0</v>
+      </c>
+      <c r="F21" s="180">
+        <v>0</v>
+      </c>
+      <c r="G21" s="182">
+        <v>0</v>
+      </c>
+      <c r="H21" s="181">
+        <v>0</v>
+      </c>
+      <c r="I21" s="180">
         <v>1</v>
       </c>
-      <c r="J21" s="215">
-        <v>0</v>
-      </c>
-      <c r="K21" s="215">
-        <v>0</v>
-      </c>
-      <c r="L21" s="215">
-        <v>0</v>
-      </c>
-      <c r="M21" s="214">
-        <v>0</v>
-      </c>
-      <c r="N21" s="219">
-        <v>0</v>
-      </c>
-      <c r="O21" s="218">
-        <v>0</v>
-      </c>
-      <c r="P21" s="218">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="218">
-        <v>0</v>
-      </c>
-      <c r="R21" s="218">
-        <v>0</v>
-      </c>
-      <c r="S21" s="217">
-        <v>0</v>
-      </c>
-      <c r="T21" s="216">
-        <v>0</v>
-      </c>
-      <c r="U21" s="215">
-        <v>0</v>
-      </c>
-      <c r="V21" s="215">
-        <v>0</v>
-      </c>
-      <c r="W21" s="215">
-        <v>0</v>
-      </c>
-      <c r="X21" s="215">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="214">
+      <c r="J21" s="175">
+        <v>0</v>
+      </c>
+      <c r="K21" s="175">
+        <v>0</v>
+      </c>
+      <c r="L21" s="175">
+        <v>0</v>
+      </c>
+      <c r="M21" s="174">
+        <v>0</v>
+      </c>
+      <c r="N21" s="179">
+        <v>0</v>
+      </c>
+      <c r="O21" s="178">
+        <v>0</v>
+      </c>
+      <c r="P21" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="178">
+        <v>0</v>
+      </c>
+      <c r="R21" s="178">
+        <v>0</v>
+      </c>
+      <c r="S21" s="177">
+        <v>0</v>
+      </c>
+      <c r="T21" s="176">
+        <v>0</v>
+      </c>
+      <c r="U21" s="175">
+        <v>0</v>
+      </c>
+      <c r="V21" s="175">
+        <v>0</v>
+      </c>
+      <c r="W21" s="175">
+        <v>0</v>
+      </c>
+      <c r="X21" s="175">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="213" t="s">
+      <c r="A22" s="173" t="s">
         <v>235</v>
       </c>
-      <c r="E22" s="210">
+      <c r="E22" s="170">
         <v>8</v>
       </c>
-      <c r="J22" s="210">
+      <c r="J22" s="170">
         <v>16</v>
       </c>
-      <c r="P22" s="210">
-        <v>0</v>
-      </c>
-      <c r="W22" s="210">
+      <c r="P22" s="170">
+        <v>0</v>
+      </c>
+      <c r="W22" s="170">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="210" t="s">
+      <c r="E23" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="210" t="s">
+      <c r="J23" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="P23" s="210" t="s">
+      <c r="P23" s="170" t="s">
         <v>233</v>
       </c>
-      <c r="W23" s="210" t="s">
+      <c r="W23" s="170" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="210" t="s">
+      <c r="E24" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="J24" s="210" t="s">
+      <c r="J24" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="P24" s="212" t="s">
+      <c r="P24" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="W24" s="212" t="s">
+      <c r="W24" s="172" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8772,6 +8899,203 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9F0DCB58-467C-DB47-8D9E-6689D6F6317B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2597F54-9260-7D46-8EC2-9DB4CD9F645A}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="F2" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="201" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="201" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="202" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="29">
+      <c r="C34" s="199" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="29">
+      <c r="C35" s="199" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="29">
+      <c r="C36" s="199" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="24">
+      <c r="C37" s="200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{42345030-4484-EB42-8D94-B2AD0E6F8F9B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9F47A49D-0B6B-514C-AF33-F9592193644F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8911,10 +9235,10 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="170"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
